--- a/th_dialect_dict/datasets/ราชบัณฑิตฯ - Copy/หมวด_ฒ(4).xlsx
+++ b/th_dialect_dict/datasets/ราชบัณฑิตฯ - Copy/หมวด_ฒ(4).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kanoon/Downloads/ข้อมูลพจนานุกรม ก-ฮ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d695ccdc58059bb2/Documents/Programming/th_dialect_dict/datasets/ราชบัณฑิตฯ - Copy/cleaned/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68E4D7F-ECA9-8E42-B41E-AFCB6D9B97D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{A68E4D7F-ECA9-8E42-B41E-AFCB6D9B97D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57BFC0B5-F084-4C8A-83F1-015B94B26597}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="1650" windowWidth="21120" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>headword</t>
   </si>
@@ -43,15 +43,9 @@
     <t>เฒ่าหัวงู</t>
   </si>
   <si>
-    <t>พยัญชนะตัวที่ ๑๘ เรียกว่า ฒอ ผู้เฒ่า เป็นอักษรต่ำ ใช้เป็นพยัญชนะต้น และเป็นตัวสะกดในมาตรากดหรือแม่กด เช่น วัฒน์ วุฒิ.</t>
-  </si>
-  <si>
     <t>ว. แก่, มีอายุมาก, เถ้า ก็ใช้.</t>
   </si>
   <si>
-    <t>น. สตรีสูงอายุที่พระเจ้าแผ่นดินโปรดให้ตั้งไว้ในตำแหน่งข้าราชการ มีหน้าที่ดูแลสตรีฝ่ายในในพระราชสำนัก; ผู้ใหญ่ที่เป็นประธานในการสู่ขอและการหมั้น, เถ้าแก่ ก็ใช้.</t>
-  </si>
-  <si>
     <t>น. ชายสูงอายุที่มีเล่ห์เหลี่ยมหรือกลอุบายหลอกหญิงสาวเพื่อกามารมณ์.</t>
   </si>
   <si>
@@ -65,13 +59,22 @@
   </si>
   <si>
     <t>related_word</t>
+  </si>
+  <si>
+    <t>? พยัญชนะตัวที่ ๑๘ เรียกว่า ฒอ ผู้เฒ่า เป็นอักษรต่ำ ใช้เป็นพยัญชนะต้น และเป็นตัวสะกดในมาตรากดหรือแม่กด เช่น วัฒน์ วุฒิ.</t>
+  </si>
+  <si>
+    <t>น. สตรีสูงอายุที่พระเจ้าแผ่นดินโปรดให้ตั้งไว้ในตำแหน่งข้าราชการ มีหน้าที่ดูแลสตรีฝ่ายในในพระราชสำนัก</t>
+  </si>
+  <si>
+    <t>น. ผู้ใหญ่ที่เป็นประธานในการสู่ขอและการหมั้น, เถ้าแก่ ก็ใช้.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,11 +84,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="TH Sarabun Chula"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="TH Sarabun Chula"/>
     </font>
   </fonts>
   <fills count="3">
@@ -134,7 +140,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -152,6 +158,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,21 +451,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="58.6640625" customWidth="1"/>
-    <col min="4" max="4" width="37.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="58.7109375" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,53 +476,61 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="81" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
